--- a/sources/excel/其他类型测试用例.xlsx
+++ b/sources/excel/其他类型测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1033,16 +1030,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.37962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1069,17 +1066,17 @@
       <c r="A2" s="1">
         <v>10000</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1097,13 +1094,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.37962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1130,17 +1127,17 @@
       <c r="A2" s="1">
         <v>20000</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/excel/其他类型测试用例.xlsx
+++ b/sources/excel/其他类型测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1030,16 +1030,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.37962962963" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.383333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1094,13 +1094,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.37962962963" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.383333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
